--- a/core/src/com/mygdx/game/gameAranyok/game arányok.xlsx
+++ b/core/src/com/mygdx/game/gameAranyok/game arányok.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pocok\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mordes\AppData\Roaming\Skype\My Skype Received Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>ember</t>
   </si>
@@ -81,6 +81,24 @@
   </si>
   <si>
     <t>fa kitermelő II</t>
+  </si>
+  <si>
+    <t>ház III</t>
+  </si>
+  <si>
+    <t>bánya III</t>
+  </si>
+  <si>
+    <t>farm III</t>
+  </si>
+  <si>
+    <t>fa kitermelő III</t>
+  </si>
+  <si>
+    <t>kut</t>
+  </si>
+  <si>
+    <t>kikepzo</t>
   </si>
 </sst>
 </file>
@@ -147,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -210,7 +228,188 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
       <right style="thin">
         <color theme="1"/>
       </right>
@@ -221,28 +420,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="thick">
         <color theme="1"/>
       </left>
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color theme="1"/>
       </top>
       <bottom style="thin">
@@ -251,113 +435,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color theme="1"/>
       </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
+      <right/>
       <top style="medium">
         <color theme="1"/>
       </top>
@@ -370,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -390,82 +471,91 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,243 +844,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="18.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="26" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="22" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="9.140625" style="5"/>
-    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="7" max="7" width="9.140625" style="11"/>
+    <col min="8" max="8" width="9.140625" style="22"/>
     <col min="9" max="9" width="9.140625" style="3"/>
-    <col min="10" max="10" width="9.140625" style="5"/>
-    <col min="11" max="11" width="9.140625" style="7"/>
+    <col min="10" max="10" width="9.140625" style="11"/>
+    <col min="11" max="11" width="9.140625" style="22"/>
     <col min="12" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="9.140625" style="5"/>
-    <col min="14" max="14" width="9.140625" style="7"/>
+    <col min="13" max="13" width="9.140625" style="11"/>
+    <col min="14" max="14" width="9.140625" style="22"/>
     <col min="15" max="15" width="9.140625" style="3"/>
-    <col min="16" max="16" width="9.140625" style="5"/>
-    <col min="17" max="17" width="9.140625" style="7"/>
+    <col min="16" max="16" width="9.140625" style="11"/>
+    <col min="17" max="17" width="9.140625" style="22"/>
     <col min="18" max="18" width="9.140625" style="3"/>
     <col min="19" max="19" width="9.140625" style="5"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="19">
-        <f>AVERAGE(E6:E99)</f>
-        <v>-3.125</v>
-      </c>
-      <c r="F1" s="31">
-        <f t="shared" ref="F1:S1" si="0">AVERAGE(F6:F99)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G1" s="10">
+      <c r="E1" s="17">
+        <f t="shared" ref="E1:S1" si="0">AVERAGE(E6:E100)</f>
+        <v>-5.1428571428571432</v>
+      </c>
+      <c r="F1" s="12">
         <f t="shared" si="0"/>
-        <v>2.625</v>
-      </c>
-      <c r="H1" s="10">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G1" s="14">
         <f t="shared" si="0"/>
-        <v>-2.5</v>
-      </c>
-      <c r="I1" s="31">
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="H1" s="17">
         <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="J1" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K1" s="10">
-        <f t="shared" si="0"/>
-        <v>-5.125</v>
-      </c>
-      <c r="L1" s="31">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
-      <c r="M1" s="10">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="N1" s="10">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="O1" s="31">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
-      <c r="P1" s="10">
+        <v>-5.3571428571428568</v>
+      </c>
+      <c r="I1" s="12">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="Q1" s="10">
+      <c r="J1" s="14">
         <f t="shared" si="0"/>
-        <v>-4.875</v>
-      </c>
-      <c r="R1" s="31">
+        <v>0</v>
+      </c>
+      <c r="K1" s="17">
         <f t="shared" si="0"/>
-        <v>1.125</v>
-      </c>
-      <c r="S1" s="11">
+        <v>-9.2857142857142865</v>
+      </c>
+      <c r="L1" s="12">
         <f t="shared" si="0"/>
+        <v>2.7857142857142856</v>
+      </c>
+      <c r="M1" s="14">
+        <f t="shared" si="0"/>
+        <v>4.2142857142857144</v>
+      </c>
+      <c r="N1" s="17">
+        <f t="shared" si="0"/>
+        <v>-4.7857142857142856</v>
+      </c>
+      <c r="O1" s="12">
+        <f t="shared" si="0"/>
+        <v>2.7857142857142856</v>
+      </c>
+      <c r="P1" s="14">
+        <f t="shared" si="0"/>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="Q1" s="17">
+        <f t="shared" si="0"/>
+        <v>-6.5714285714285712</v>
+      </c>
+      <c r="R1" s="12">
+        <f t="shared" si="0"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="S1" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="20">
-        <f>SUM(E6:E99)</f>
-        <v>-25</v>
-      </c>
-      <c r="F2" s="32">
-        <f t="shared" ref="F2:S2" si="1">SUM(F6:F99)</f>
-        <v>4</v>
-      </c>
-      <c r="G2" s="12">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="H2" s="12">
-        <f t="shared" si="1"/>
-        <v>-20</v>
-      </c>
-      <c r="I2" s="32">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="J2" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K2" s="12">
-        <f t="shared" si="1"/>
-        <v>-41</v>
-      </c>
-      <c r="L2" s="32">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="M2" s="12">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="N2" s="12">
-        <f t="shared" si="1"/>
-        <v>-16</v>
-      </c>
-      <c r="O2" s="32">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="P2" s="12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="Q2" s="12">
-        <f t="shared" si="1"/>
-        <v>-39</v>
-      </c>
-      <c r="R2" s="32">
+      <c r="E2" s="18">
+        <f t="shared" ref="E2:S2" si="1">SUM(E6:E100)</f>
+        <v>-72</v>
+      </c>
+      <c r="F2" s="13">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="S2" s="13">
+      <c r="G2" s="15">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="H2" s="18">
+        <f t="shared" si="1"/>
+        <v>-75</v>
+      </c>
+      <c r="I2" s="13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J2" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K2" s="18">
+        <f t="shared" si="1"/>
+        <v>-130</v>
+      </c>
+      <c r="L2" s="13">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="M2" s="15">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="N2" s="18">
+        <f t="shared" si="1"/>
+        <v>-67</v>
+      </c>
+      <c r="O2" s="13">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="P2" s="15">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="Q2" s="18">
+        <f t="shared" si="1"/>
+        <v>-92</v>
+      </c>
+      <c r="R2" s="13">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="S2" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="4">
         <f>SUM(E2:G2)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="4">
         <f>SUM(H2:J2)</f>
-        <v>-17</v>
+        <v>-68</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="4">
         <f>SUM(K2:M2)</f>
-        <v>-7</v>
+        <v>-32</v>
       </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="N3" s="19"/>
       <c r="O3" s="4">
         <f>SUM(N2:P2)</f>
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="Q3" s="19"/>
       <c r="R3" s="4">
         <f>SUM(Q2:S2)</f>
-        <v>-30</v>
+        <v>-74</v>
       </c>
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="D4" s="26">
-        <f>COUNTA(D6:D99)</f>
-        <v>8</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="B4" s="35"/>
+      <c r="D4" s="24">
+        <f>COUNTA(D6:D100)</f>
+        <v>14</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="R4" s="3" t="s">
@@ -1001,196 +1091,198 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="31"/>
+      <c r="D5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17" t="s">
+      <c r="E5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17" t="s">
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17" t="s">
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17" t="s">
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="17"/>
-      <c r="S5" s="18"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="30"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="D6" s="24" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="D6" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="21">
         <v>-2</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="9">
         <v>1</v>
       </c>
       <c r="G6" s="16">
         <v>2</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="21">
         <v>-6</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="9">
         <v>-2</v>
       </c>
       <c r="J6" s="16">
         <v>0</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="21">
         <v>-3</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="9">
         <v>0</v>
       </c>
       <c r="M6" s="16">
         <v>1</v>
       </c>
-      <c r="N6" s="14">
-        <v>0</v>
-      </c>
-      <c r="O6" s="15">
+      <c r="N6" s="21">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
         <v>0</v>
       </c>
       <c r="P6" s="16">
         <v>0</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="21">
         <v>-5</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="9">
         <v>1</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D7" s="23" t="s">
+      <c r="A7" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="D7" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="22">
+        <v>-5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="11">
+        <v>5</v>
+      </c>
+      <c r="H7" s="22">
+        <v>-12</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-4</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22">
+        <v>-10</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>3</v>
+      </c>
+      <c r="N7" s="22">
+        <v>-6</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>-8</v>
+      </c>
+      <c r="R7" s="3">
+        <v>3</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="22">
+        <v>-10</v>
+      </c>
+      <c r="F8" s="6">
+        <v>5</v>
+      </c>
+      <c r="G8" s="11">
+        <v>10</v>
+      </c>
+      <c r="H8" s="22">
+        <v>-18</v>
+      </c>
+      <c r="I8" s="6">
+        <v>-8</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="22">
+        <v>-25</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>10</v>
+      </c>
+      <c r="N8" s="22">
+        <v>-10</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>-10</v>
+      </c>
+      <c r="R8" s="6">
+        <v>5</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D9" s="26" t="s">
         <v>12</v>
-      </c>
-      <c r="E7" s="22">
-        <v>-2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>-5</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <v>2</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>4</v>
-      </c>
-      <c r="P7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>-4</v>
-      </c>
-      <c r="R7" s="3">
-        <v>2</v>
-      </c>
-      <c r="S7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="22">
-        <v>-1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>-1</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>-2</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D9" s="23" t="s">
-        <v>14</v>
       </c>
       <c r="E9" s="22">
         <v>-2</v>
@@ -1198,148 +1290,198 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="11">
         <v>2</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="22">
         <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
+        <v>-5</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>2</v>
+      </c>
+      <c r="N9" s="22">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>4</v>
       </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
+      <c r="P9" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>-4</v>
+      </c>
+      <c r="R9" s="3">
+        <v>2</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="22">
+        <v>-5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>5</v>
+      </c>
+      <c r="H10" s="22">
         <v>-2</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5">
+      <c r="I10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="22">
+        <v>-10</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <v>6</v>
+      </c>
+      <c r="N10" s="22">
+        <v>-5</v>
+      </c>
+      <c r="O10" s="3">
+        <v>10</v>
+      </c>
+      <c r="P10" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>-6</v>
+      </c>
+      <c r="R10" s="3">
+        <v>4</v>
+      </c>
+      <c r="S10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D11" s="23" t="s">
-        <v>15</v>
+      <c r="D11" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="E11" s="22">
-        <v>-5</v>
-      </c>
-      <c r="F11" s="3">
+        <v>-12</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>12</v>
+      </c>
+      <c r="H11" s="22">
+        <v>-4</v>
+      </c>
+      <c r="I11" s="6">
+        <v>-2</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="22">
+        <v>-20</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>10</v>
+      </c>
+      <c r="N11" s="22">
+        <v>-10</v>
+      </c>
+      <c r="O11" s="6">
+        <v>25</v>
+      </c>
+      <c r="P11" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>-12</v>
+      </c>
+      <c r="R11" s="6">
+        <v>6</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="22">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>3</v>
       </c>
-      <c r="G11" s="5">
-        <v>3</v>
-      </c>
-      <c r="H11" s="7">
-        <v>-10</v>
-      </c>
-      <c r="I11" s="3">
-        <v>-4</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
-        <v>-10</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>-6</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>-8</v>
-      </c>
-      <c r="R11" s="3">
-        <v>3</v>
-      </c>
-      <c r="S11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D12" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="22">
-        <v>-5</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>4</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="22">
         <v>-1</v>
       </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
-        <v>-10</v>
-      </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="5">
-        <v>6</v>
-      </c>
-      <c r="N12" s="7">
-        <v>-5</v>
+      <c r="M12" s="11">
+        <v>0</v>
+      </c>
+      <c r="N12" s="22">
+        <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>10</v>
-      </c>
-      <c r="P12" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>-6</v>
+        <v>0</v>
+      </c>
+      <c r="P12" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>-2</v>
       </c>
       <c r="R12" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S12" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="22">
@@ -1348,37 +1490,37 @@
       <c r="F13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="11">
         <v>2</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="22">
         <v>-4</v>
       </c>
       <c r="I13" s="3">
         <v>8</v>
       </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="22">
         <v>-4</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="11">
         <v>2</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="22">
         <v>-1</v>
       </c>
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="7">
+      <c r="P13" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="22">
         <v>-4</v>
       </c>
       <c r="R13" s="3">
@@ -1389,65 +1531,322 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="22">
+        <v>-3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>3</v>
+      </c>
+      <c r="H14" s="22">
+        <v>-8</v>
+      </c>
+      <c r="I14" s="6">
+        <v>16</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="22">
+        <v>-8</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>4</v>
+      </c>
+      <c r="N14" s="22">
+        <v>-3</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>-6</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D15" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="22">
+        <v>-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>2</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="22">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>4</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="22">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>-2</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D16" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E16" s="22">
         <v>-6</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>6</v>
+      </c>
+      <c r="H16" s="22">
+        <v>-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16" s="22">
+        <v>-8</v>
+      </c>
+      <c r="L16" s="3">
+        <v>10</v>
+      </c>
+      <c r="M16" s="11">
+        <v>6</v>
+      </c>
+      <c r="N16" s="22">
+        <v>-4</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>-8</v>
+      </c>
+      <c r="R16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D17" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="22">
+        <v>-12</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>12</v>
+      </c>
+      <c r="H17" s="22">
+        <v>-4</v>
+      </c>
+      <c r="I17" s="6">
+        <v>-2</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="22">
+        <v>-16</v>
+      </c>
+      <c r="L17" s="6">
+        <v>25</v>
+      </c>
+      <c r="M17" s="11">
+        <v>8</v>
+      </c>
+      <c r="N17" s="22">
+        <v>-8</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>-10</v>
+      </c>
+      <c r="R17" s="6">
+        <v>-2</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D18" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="22">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
+      <c r="K18" s="22">
+        <v>-5</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <v>2</v>
+      </c>
+      <c r="N18" s="22">
+        <v>-5</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="22">
+        <v>-10</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>10</v>
+      </c>
+      <c r="H19" s="22">
+        <v>-15</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="22">
+        <v>-15</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
         <v>5</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
-        <v>-8</v>
-      </c>
-      <c r="L14" s="3">
-        <v>10</v>
-      </c>
-      <c r="M14" s="5">
-        <v>6</v>
-      </c>
-      <c r="N14" s="7">
-        <v>-4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>-8</v>
-      </c>
-      <c r="R14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S14" s="5">
-        <v>0</v>
-      </c>
+      <c r="N19" s="22">
+        <v>-15</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>-15</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="R20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
